--- a/src/test/resources/testdata/EasyQuoteL7.xlsx
+++ b/src/test/resources/testdata/EasyQuoteL7.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="127">
   <si>
     <t>Source</t>
   </si>
@@ -135,12 +135,274 @@
   </si>
   <si>
     <t>1.75</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>315.0</t>
+  </si>
+  <si>
+    <t>15.75</t>
+  </si>
+  <si>
+    <t>330.75</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>525.0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>31.5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>51.45</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>58.8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>151.2</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>1072.0</t>
+  </si>
+  <si>
+    <t>53.6</t>
+  </si>
+  <si>
+    <t>1125.6</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>1040.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>1092.0</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>864.0</t>
+  </si>
+  <si>
+    <t>43.2</t>
+  </si>
+  <si>
+    <t>907.2</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>9600.0</t>
+  </si>
+  <si>
+    <t>480.0</t>
+  </si>
+  <si>
+    <t>10080.0</t>
+  </si>
+  <si>
+    <t>9.98</t>
+  </si>
+  <si>
+    <t>1796.4</t>
+  </si>
+  <si>
+    <t>89.82</t>
+  </si>
+  <si>
+    <t>1886.22</t>
+  </si>
+  <si>
+    <t>2495.0</t>
+  </si>
+  <si>
+    <t>124.75</t>
+  </si>
+  <si>
+    <t>2619.75</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>47.25</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>2.75</t>
+  </si>
+  <si>
+    <t>275.0</t>
+  </si>
+  <si>
+    <t>13.75</t>
+  </si>
+  <si>
+    <t>288.75</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>78.0</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>81.9</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>276.0</t>
+  </si>
+  <si>
+    <t>13.8</t>
+  </si>
+  <si>
+    <t>289.8</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>2430.0</t>
+  </si>
+  <si>
+    <t>121.5</t>
+  </si>
+  <si>
+    <t>2551.5</t>
+  </si>
+  <si>
+    <t>8.48</t>
+  </si>
+  <si>
+    <t>59.36</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>62.33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -588,11 +850,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="11.5703125" style="10" collapsed="1"/>
-    <col min="6" max="6" width="11.5703125" style="10"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="20.42578125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="4" max="5" style="10" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" style="10" width="11.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30">
@@ -658,8 +920,8 @@
       <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="9">
-        <v>180</v>
+      <c r="D2" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>39</v>
@@ -667,17 +929,39 @@
       <c r="F2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="28.5" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -689,26 +973,48 @@
       <c r="C3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="9">
-        <v>250</v>
-      </c>
-      <c r="E3" s="11">
-        <v>2</v>
+      <c r="D3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:17" ht="28.5" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -720,26 +1026,48 @@
       <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="9">
-        <v>3</v>
-      </c>
-      <c r="E4" s="11">
-        <v>5</v>
+      <c r="D4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:17" ht="28.5" customHeight="1">
       <c r="A5" s="7" t="s">
@@ -751,26 +1079,48 @@
       <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="9">
-        <v>4</v>
-      </c>
-      <c r="E5" s="11">
-        <v>5</v>
+      <c r="D5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:17" ht="28.5" customHeight="1">
       <c r="A6" s="7" t="s">
@@ -782,26 +1132,48 @@
       <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="9">
-        <v>100</v>
-      </c>
-      <c r="E6" s="11">
-        <v>5</v>
+      <c r="D6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="28.5" customHeight="1">
       <c r="A7" s="7" t="s">
@@ -813,26 +1185,48 @@
       <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="9">
-        <v>6</v>
-      </c>
-      <c r="E7" s="11">
-        <v>5</v>
+      <c r="D7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:17" ht="28.5" customHeight="1">
       <c r="A8" s="7" t="s">
@@ -844,26 +1238,48 @@
       <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="9">
-        <v>7</v>
-      </c>
-      <c r="E8" s="11">
-        <v>7</v>
+      <c r="D8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="28.5" customHeight="1">
       <c r="A9" s="7" t="s">
@@ -875,26 +1291,48 @@
       <c r="C9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="9">
-        <v>8</v>
-      </c>
-      <c r="E9" s="11">
-        <v>7</v>
+      <c r="D9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:17" ht="28.5" customHeight="1">
       <c r="A10" s="7" t="s">
@@ -906,26 +1344,48 @@
       <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="9">
-        <v>9</v>
-      </c>
-      <c r="E10" s="11">
-        <v>16</v>
+      <c r="D10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:17" ht="28.5" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -937,26 +1397,48 @@
       <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="9">
-        <v>67</v>
-      </c>
-      <c r="E11" s="11">
-        <v>16</v>
+      <c r="D11" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:17" ht="28.5" customHeight="1">
       <c r="A12" s="7" t="s">
@@ -968,26 +1450,48 @@
       <c r="C12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="9">
-        <v>65</v>
-      </c>
-      <c r="E12" s="11">
-        <v>16</v>
+      <c r="D12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:17" ht="28.5" customHeight="1">
       <c r="A13" s="7" t="s">
@@ -999,26 +1503,48 @@
       <c r="C13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="9">
-        <v>54</v>
-      </c>
-      <c r="E13" s="11">
-        <v>16</v>
+      <c r="D13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:17" ht="28.5" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -1030,26 +1556,48 @@
       <c r="C14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="9">
-        <v>9</v>
-      </c>
-      <c r="E14" s="11">
-        <v>16</v>
+      <c r="D14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:17" ht="28.5" customHeight="1">
       <c r="A15" s="7" t="s">
@@ -1061,26 +1609,48 @@
       <c r="C15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="9">
-        <v>600</v>
-      </c>
-      <c r="E15" s="11">
-        <v>16</v>
+      <c r="D15" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -1103,10 +1673,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="20.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="1" width="20.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30">
@@ -1178,26 +1748,48 @@
       <c r="D2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="4">
-        <v>180</v>
-      </c>
-      <c r="F2" s="3">
-        <v>9.98</v>
+      <c r="E2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:18" ht="28.5" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -1212,26 +1804,48 @@
       <c r="D3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="4">
-        <v>250</v>
-      </c>
-      <c r="F3" s="3">
-        <v>9.98</v>
+      <c r="E3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="28.5" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -1246,26 +1860,48 @@
       <c r="D4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3">
-        <v>15</v>
+      <c r="E4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:18" ht="28.5" customHeight="1">
       <c r="A5" s="3" t="s">
@@ -1280,26 +1916,48 @@
       <c r="D5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="4">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3">
-        <v>15</v>
+      <c r="E5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="28.5" customHeight="1">
       <c r="A6" s="7" t="s">
@@ -1314,26 +1972,48 @@
       <c r="D6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="4">
-        <v>100</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2.75</v>
+      <c r="E6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="28.5" customHeight="1">
       <c r="A7" s="7" t="s">
@@ -1348,26 +2028,48 @@
       <c r="D7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="4">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3">
-        <v>13</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
+      <c r="E7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="28.5" customHeight="1">
       <c r="A8" s="7" t="s">
@@ -1382,26 +2084,48 @@
       <c r="D8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="4">
-        <v>23</v>
-      </c>
-      <c r="F8" s="3">
-        <v>12</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="E8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:18" ht="28.5" customHeight="1">
       <c r="A9" s="7" t="s">
@@ -1416,26 +2140,48 @@
       <c r="D9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="4">
-        <v>54</v>
-      </c>
-      <c r="F9" s="3">
-        <v>45</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
+      <c r="E9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="28.5" customHeight="1">
       <c r="A10" s="3" t="s">
@@ -1450,26 +2196,48 @@
       <c r="D10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="4">
-        <v>7</v>
-      </c>
-      <c r="F10" s="3">
-        <v>8.48</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
+      <c r="E10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
